--- a/output/康力泉_全部记录.xlsx
+++ b/output/康力泉_全部记录.xlsx
@@ -5809,7 +5809,7 @@
         <v>6.395</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
       <c r="K4">
         <v>12790</v>
@@ -5871,7 +5871,7 @@
         <v>2.309</v>
       </c>
       <c r="J5">
-        <v>4000</v>
+        <v>-4000</v>
       </c>
       <c r="K5">
         <v>9236</v>
@@ -5995,7 +5995,7 @@
         <v>18.06</v>
       </c>
       <c r="J7">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="K7">
         <v>21672</v>
@@ -6305,7 +6305,7 @@
         <v>7.12</v>
       </c>
       <c r="J12">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
       <c r="K12">
         <v>35600</v>
@@ -6367,7 +6367,7 @@
         <v>19.6</v>
       </c>
       <c r="J13">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="K13">
         <v>5880</v>
@@ -6491,7 +6491,7 @@
         <v>7.299</v>
       </c>
       <c r="J15">
-        <v>9000</v>
+        <v>-9000</v>
       </c>
       <c r="K15">
         <v>65691</v>
@@ -6615,7 +6615,7 @@
         <v>11.91</v>
       </c>
       <c r="J17">
-        <v>800</v>
+        <v>-800</v>
       </c>
       <c r="K17">
         <v>9528</v>
@@ -6801,7 +6801,7 @@
         <v>7.762</v>
       </c>
       <c r="J20">
-        <v>1300</v>
+        <v>-1300</v>
       </c>
       <c r="K20">
         <v>10090.6</v>
@@ -6863,7 +6863,7 @@
         <v>20.33</v>
       </c>
       <c r="J21">
-        <v>7600</v>
+        <v>-7600</v>
       </c>
       <c r="K21">
         <v>154508</v>
@@ -7421,7 +7421,7 @@
         <v>6.583</v>
       </c>
       <c r="J30">
-        <v>2400</v>
+        <v>-2400</v>
       </c>
       <c r="K30">
         <v>15799.2</v>
@@ -7483,7 +7483,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="J31">
-        <v>800</v>
+        <v>-800</v>
       </c>
       <c r="K31">
         <v>6776</v>
@@ -7545,7 +7545,7 @@
         <v>17.32</v>
       </c>
       <c r="J32">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="K32">
         <v>51960</v>
@@ -7607,7 +7607,7 @@
         <v>17.45</v>
       </c>
       <c r="J33">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
       <c r="K33">
         <v>174500</v>
@@ -7669,7 +7669,7 @@
         <v>14.85</v>
       </c>
       <c r="J34">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="K34">
         <v>4455</v>
@@ -7917,7 +7917,7 @@
         <v>2.192</v>
       </c>
       <c r="J38">
-        <v>600</v>
+        <v>-600</v>
       </c>
       <c r="K38">
         <v>1315.2</v>
@@ -7979,7 +7979,7 @@
         <v>6.66</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K39">
         <v>666</v>
@@ -8227,7 +8227,7 @@
         <v>6.523</v>
       </c>
       <c r="J43">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K43">
         <v>652.3</v>
@@ -8289,7 +8289,7 @@
         <v>1.076</v>
       </c>
       <c r="J44">
-        <v>600</v>
+        <v>-600</v>
       </c>
       <c r="K44">
         <v>645.6</v>
@@ -8351,7 +8351,7 @@
         <v>0.537</v>
       </c>
       <c r="J45">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="K45">
         <v>644.4</v>
@@ -8785,7 +8785,7 @@
         <v>2.161</v>
       </c>
       <c r="J52">
-        <v>1400</v>
+        <v>-1400</v>
       </c>
       <c r="K52">
         <v>3025.4</v>
@@ -8847,7 +8847,7 @@
         <v>3.206</v>
       </c>
       <c r="J53">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="K53">
         <v>1603</v>
@@ -8909,7 +8909,7 @@
         <v>6.387</v>
       </c>
       <c r="J54">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="K54">
         <v>3193.5</v>
@@ -8971,7 +8971,7 @@
         <v>2.704</v>
       </c>
       <c r="J55">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="K55">
         <v>2704</v>
@@ -9467,7 +9467,7 @@
         <v>1.227</v>
       </c>
       <c r="J63">
-        <v>402.05</v>
+        <v>-402.05</v>
       </c>
       <c r="K63">
         <v>490.85</v>
@@ -9529,7 +9529,7 @@
         <v>0.844</v>
       </c>
       <c r="J64">
-        <v>566.33</v>
+        <v>-566.33</v>
       </c>
       <c r="K64">
         <v>475.59</v>
@@ -9591,7 +9591,7 @@
         <v>6.102</v>
       </c>
       <c r="J65">
-        <v>600</v>
+        <v>-600</v>
       </c>
       <c r="K65">
         <v>3661.2</v>
@@ -9653,7 +9653,7 @@
         <v>0.584</v>
       </c>
       <c r="J66">
-        <v>65300</v>
+        <v>-65300</v>
       </c>
       <c r="K66">
         <v>38135.2</v>
@@ -10025,7 +10025,7 @@
         <v>0.9</v>
       </c>
       <c r="J72">
-        <v>23000</v>
+        <v>-23000</v>
       </c>
       <c r="K72">
         <v>20700</v>
@@ -10087,7 +10087,7 @@
         <v>0.915</v>
       </c>
       <c r="J73">
-        <v>22200</v>
+        <v>-22200</v>
       </c>
       <c r="K73">
         <v>20313</v>
@@ -10397,7 +10397,7 @@
         <v>1.085</v>
       </c>
       <c r="J78">
-        <v>13600</v>
+        <v>-13600</v>
       </c>
       <c r="K78">
         <v>14756</v>
@@ -10459,7 +10459,7 @@
         <v>0.929</v>
       </c>
       <c r="J79">
-        <v>23000</v>
+        <v>-23000</v>
       </c>
       <c r="K79">
         <v>21367</v>
@@ -10521,7 +10521,7 @@
         <v>4.76</v>
       </c>
       <c r="J80">
-        <v>21000</v>
+        <v>-21000</v>
       </c>
       <c r="K80">
         <v>99960</v>
@@ -11079,7 +11079,7 @@
         <v>0.589</v>
       </c>
       <c r="J89">
-        <v>72000</v>
+        <v>-72000</v>
       </c>
       <c r="K89">
         <v>42408</v>
@@ -11389,7 +11389,7 @@
         <v>0.93</v>
       </c>
       <c r="J94">
-        <v>5700</v>
+        <v>-5700</v>
       </c>
       <c r="K94">
         <v>5301</v>
@@ -11451,7 +11451,7 @@
         <v>0.632</v>
       </c>
       <c r="J95">
-        <v>5500</v>
+        <v>-5500</v>
       </c>
       <c r="K95">
         <v>3476</v>
@@ -11575,7 +11575,7 @@
         <v>113.446</v>
       </c>
       <c r="J97">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="K97">
         <v>102101.4</v>
@@ -11699,7 +11699,7 @@
         <v>113.524</v>
       </c>
       <c r="J99">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="K99">
         <v>102171.6</v>
@@ -11823,7 +11823,7 @@
         <v>112.915</v>
       </c>
       <c r="J101">
-        <v>1600</v>
+        <v>-1600</v>
       </c>
       <c r="K101">
         <v>180664</v>
@@ -11885,7 +11885,7 @@
         <v>0.645</v>
       </c>
       <c r="J102">
-        <v>156000</v>
+        <v>-156000</v>
       </c>
       <c r="K102">
         <v>100620</v>
@@ -11947,7 +11947,7 @@
         <v>0.647</v>
       </c>
       <c r="J103">
-        <v>85900</v>
+        <v>-85900</v>
       </c>
       <c r="K103">
         <v>55577.3</v>
@@ -12319,7 +12319,7 @@
         <v>1.255</v>
       </c>
       <c r="J109">
-        <v>16000</v>
+        <v>-16000</v>
       </c>
       <c r="K109">
         <v>20080</v>
@@ -12381,7 +12381,7 @@
         <v>1.078</v>
       </c>
       <c r="J110">
-        <v>19000</v>
+        <v>-19000</v>
       </c>
       <c r="K110">
         <v>20482</v>
@@ -12567,7 +12567,7 @@
         <v>1.26</v>
       </c>
       <c r="J113">
-        <v>17500</v>
+        <v>-17500</v>
       </c>
       <c r="K113">
         <v>22050</v>
@@ -12629,7 +12629,7 @@
         <v>1.079</v>
       </c>
       <c r="J114">
-        <v>20300</v>
+        <v>-20300</v>
       </c>
       <c r="K114">
         <v>21903.7</v>
@@ -12815,7 +12815,7 @@
         <v>1.275</v>
       </c>
       <c r="J117">
-        <v>12000</v>
+        <v>-12000</v>
       </c>
       <c r="K117">
         <v>15300</v>
@@ -12939,7 +12939,7 @@
         <v>1.295</v>
       </c>
       <c r="J119">
-        <v>11400</v>
+        <v>-11400</v>
       </c>
       <c r="K119">
         <v>14763</v>
@@ -13497,7 +13497,7 @@
         <v>1.151</v>
       </c>
       <c r="J128">
-        <v>42000</v>
+        <v>-42000</v>
       </c>
       <c r="K128">
         <v>48342</v>
@@ -14241,7 +14241,7 @@
         <v>1.14</v>
       </c>
       <c r="J140">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
       <c r="K140">
         <v>11400</v>
@@ -14489,7 +14489,7 @@
         <v>1.151</v>
       </c>
       <c r="J144">
-        <v>42800</v>
+        <v>-42800</v>
       </c>
       <c r="K144">
         <v>49262.8</v>
@@ -14799,7 +14799,7 @@
         <v>1.602</v>
       </c>
       <c r="J149">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K149">
         <v>160.2</v>
@@ -14985,7 +14985,7 @@
         <v>0.603</v>
       </c>
       <c r="J152">
-        <v>337000</v>
+        <v>-337000</v>
       </c>
       <c r="K152">
         <v>203211</v>
@@ -15977,7 +15977,7 @@
         <v>0.604</v>
       </c>
       <c r="J168">
-        <v>297200</v>
+        <v>-297200</v>
       </c>
       <c r="K168">
         <v>179508.8</v>
@@ -16163,7 +16163,7 @@
         <v>0.9688</v>
       </c>
       <c r="J171">
-        <v>4205.5</v>
+        <v>-4205.5</v>
       </c>
       <c r="K171">
         <v>4072.25</v>
@@ -16225,7 +16225,7 @@
         <v>0.62</v>
       </c>
       <c r="J172">
-        <v>148600</v>
+        <v>-148600</v>
       </c>
       <c r="K172">
         <v>92132</v>
@@ -16287,7 +16287,7 @@
         <v>0.635</v>
       </c>
       <c r="J173">
-        <v>148600</v>
+        <v>-148600</v>
       </c>
       <c r="K173">
         <v>94361</v>
@@ -16721,7 +16721,7 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="J180">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K180">
         <v>68.2</v>
@@ -18023,7 +18023,7 @@
         <v>0.9937</v>
       </c>
       <c r="J201">
-        <v>4205.5</v>
+        <v>-4205.5</v>
       </c>
       <c r="K201">
         <v>4176.92</v>
@@ -18581,7 +18581,7 @@
         <v>1.0019</v>
       </c>
       <c r="J210">
-        <v>4205.5</v>
+        <v>-4205.5</v>
       </c>
       <c r="K210">
         <v>4211.37</v>
@@ -18705,7 +18705,7 @@
         <v>1.251</v>
       </c>
       <c r="J212">
-        <v>5451.73</v>
+        <v>-5451.73</v>
       </c>
       <c r="K212">
         <v>6820.11</v>
@@ -20441,7 +20441,7 @@
         <v>1.257</v>
       </c>
       <c r="J240">
-        <v>5451.73</v>
+        <v>-5451.73</v>
       </c>
       <c r="K240">
         <v>6852.82</v>
@@ -20875,7 +20875,7 @@
         <v>1.0285</v>
       </c>
       <c r="J247">
-        <v>4205.6</v>
+        <v>-4205.6</v>
       </c>
       <c r="K247">
         <v>4323.3</v>
@@ -21433,7 +21433,7 @@
         <v>1.244</v>
       </c>
       <c r="J256">
-        <v>5451.73</v>
+        <v>-5451.73</v>
       </c>
       <c r="K256">
         <v>6781.95</v>
@@ -21681,7 +21681,7 @@
         <v>5.831</v>
       </c>
       <c r="J260">
-        <v>1400</v>
+        <v>-1400</v>
       </c>
       <c r="K260">
         <v>8163.4</v>
@@ -24595,7 +24595,7 @@
         <v>1.2283</v>
       </c>
       <c r="J307">
-        <v>339.82</v>
+        <v>-339.82</v>
       </c>
       <c r="K307">
         <v>417.4</v>
@@ -24781,7 +24781,7 @@
         <v>2.678</v>
       </c>
       <c r="J310">
-        <v>3730.54</v>
+        <v>-3730.54</v>
       </c>
       <c r="K310">
         <v>9940.440000000001</v>
@@ -29493,7 +29493,7 @@
         <v>0.63</v>
       </c>
       <c r="J386">
-        <v>64800</v>
+        <v>-64800</v>
       </c>
       <c r="K386">
         <v>40824</v>
@@ -37429,7 +37429,7 @@
         <v>3.108</v>
       </c>
       <c r="J514">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="K514">
         <v>3729.6</v>
@@ -39909,7 +39909,7 @@
         <v>1.7296</v>
       </c>
       <c r="J554">
-        <v>4791.13</v>
+        <v>-4791.13</v>
       </c>
       <c r="K554">
         <v>8266.02</v>
@@ -41707,7 +41707,7 @@
         <v>0.945</v>
       </c>
       <c r="J583">
-        <v>3889.32</v>
+        <v>-3889.32</v>
       </c>
       <c r="K583">
         <v>3675.41</v>
@@ -41831,7 +41831,7 @@
         <v>1.0422</v>
       </c>
       <c r="J585">
-        <v>3580.2</v>
+        <v>-3580.2</v>
       </c>
       <c r="K585">
         <v>3731.28</v>
@@ -44063,7 +44063,7 @@
         <v>1.2631</v>
       </c>
       <c r="J621">
-        <v>23727.77</v>
+        <v>-23727.77</v>
       </c>
       <c r="K621">
         <v>29970.55</v>
@@ -44125,7 +44125,7 @@
         <v>1.0082</v>
       </c>
       <c r="J622">
-        <v>29677.98</v>
+        <v>-29677.98</v>
       </c>
       <c r="K622">
         <v>29921.34</v>
@@ -44187,7 +44187,7 @@
         <v>1.174</v>
       </c>
       <c r="J623">
-        <v>33947.63</v>
+        <v>-33947.63</v>
       </c>
       <c r="K623">
         <v>39854.52</v>
@@ -44683,7 +44683,7 @@
         <v>0.9182</v>
       </c>
       <c r="J631">
-        <v>550.4</v>
+        <v>-550.4</v>
       </c>
       <c r="K631">
         <v>504.12</v>
@@ -46791,7 +46791,7 @@
         <v>0.957</v>
       </c>
       <c r="J665">
-        <v>2400</v>
+        <v>-2400</v>
       </c>
       <c r="K665">
         <v>2296.8</v>
@@ -47039,7 +47039,7 @@
         <v>0.8827</v>
       </c>
       <c r="J669">
-        <v>531.87</v>
+        <v>-531.87</v>
       </c>
       <c r="K669">
         <v>469.25</v>
@@ -47783,7 +47783,7 @@
         <v>0.9822</v>
       </c>
       <c r="J681">
-        <v>3889.32</v>
+        <v>-3889.32</v>
       </c>
       <c r="K681">
         <v>3820.09</v>
@@ -47845,7 +47845,7 @@
         <v>1.2654</v>
       </c>
       <c r="J682">
-        <v>10162.95</v>
+        <v>-10162.95</v>
       </c>
       <c r="K682">
         <v>12860.2</v>
@@ -47907,7 +47907,7 @@
         <v>1.0109</v>
       </c>
       <c r="J683">
-        <v>12720.35</v>
+        <v>-12720.35</v>
       </c>
       <c r="K683">
         <v>12859</v>
@@ -47969,7 +47969,7 @@
         <v>1.177</v>
       </c>
       <c r="J684">
-        <v>14554.48</v>
+        <v>-14554.48</v>
       </c>
       <c r="K684">
         <v>17130.62</v>
@@ -48403,7 +48403,7 @@
         <v>6.218</v>
       </c>
       <c r="J691">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="K691">
         <v>7461.6</v>
@@ -48465,7 +48465,7 @@
         <v>2.092</v>
       </c>
       <c r="J692">
-        <v>4400</v>
+        <v>-4400</v>
       </c>
       <c r="K692">
         <v>9204.799999999999</v>
@@ -49519,7 +49519,7 @@
         <v>0.8646</v>
       </c>
       <c r="J709">
-        <v>404.92</v>
+        <v>-404.92</v>
       </c>
       <c r="K709">
         <v>348.34</v>
@@ -49643,7 +49643,7 @@
         <v>2.1254</v>
       </c>
       <c r="J711">
-        <v>400.63</v>
+        <v>-400.63</v>
       </c>
       <c r="K711">
         <v>847.24</v>
@@ -50015,7 +50015,7 @@
         <v>0.8646</v>
       </c>
       <c r="J717">
-        <v>7852.99</v>
+        <v>-7852.99</v>
       </c>
       <c r="K717">
         <v>6755.75</v>
@@ -50263,7 +50263,7 @@
         <v>2.06</v>
       </c>
       <c r="J721">
-        <v>4800</v>
+        <v>-4800</v>
       </c>
       <c r="K721">
         <v>9888</v>
@@ -50635,7 +50635,7 @@
         <v>0.238</v>
       </c>
       <c r="J727">
-        <v>35500</v>
+        <v>-35500</v>
       </c>
       <c r="K727">
         <v>8449</v>
@@ -50697,7 +50697,7 @@
         <v>1.1231</v>
       </c>
       <c r="J728">
-        <v>736.3</v>
+        <v>-736.3</v>
       </c>
       <c r="K728">
         <v>822.8099999999999</v>
@@ -51069,7 +51069,7 @@
         <v>1.3007</v>
       </c>
       <c r="J734">
-        <v>917.24</v>
+        <v>-917.24</v>
       </c>
       <c r="K734">
         <v>1191.86</v>
@@ -51317,7 +51317,7 @@
         <v>1.3524</v>
       </c>
       <c r="J738">
-        <v>1761.92</v>
+        <v>-1761.92</v>
       </c>
       <c r="K738">
         <v>2382.82</v>
@@ -51379,7 +51379,7 @@
         <v>1.2185</v>
       </c>
       <c r="J739">
-        <v>8064.79</v>
+        <v>-8064.79</v>
       </c>
       <c r="K739">
         <v>9826.950000000001</v>
@@ -51441,7 +51441,7 @@
         <v>1.0899</v>
       </c>
       <c r="J740">
-        <v>4212.21</v>
+        <v>-4212.21</v>
       </c>
       <c r="K740">
         <v>4590.89</v>
@@ -51503,7 +51503,7 @@
         <v>1.0783</v>
       </c>
       <c r="J741">
-        <v>4046.77</v>
+        <v>-4046.77</v>
       </c>
       <c r="K741">
         <v>4363.63</v>
@@ -51565,7 +51565,7 @@
         <v>1.563</v>
       </c>
       <c r="J742">
-        <v>1455.18</v>
+        <v>-1455.18</v>
       </c>
       <c r="K742">
         <v>2274.45</v>
@@ -51627,7 +51627,7 @@
         <v>1.319</v>
       </c>
       <c r="J743">
-        <v>5609.79</v>
+        <v>-5609.79</v>
       </c>
       <c r="K743">
         <v>7399.31</v>
@@ -51689,7 +51689,7 @@
         <v>3.471</v>
       </c>
       <c r="J744">
-        <v>2200</v>
+        <v>-2200</v>
       </c>
       <c r="K744">
         <v>7636.2</v>
@@ -52371,7 +52371,7 @@
         <v>1.084</v>
       </c>
       <c r="J755">
-        <v>19385.95</v>
+        <v>-19385.95</v>
       </c>
       <c r="K755">
         <v>21014.38</v>
@@ -53239,7 +53239,7 @@
         <v>1.3418</v>
       </c>
       <c r="J769">
-        <v>1136.56</v>
+        <v>-1136.56</v>
       </c>
       <c r="K769">
         <v>1525.04</v>
@@ -53301,7 +53301,7 @@
         <v>1.2182</v>
       </c>
       <c r="J770">
-        <v>15496.5</v>
+        <v>-15496.5</v>
       </c>
       <c r="K770">
         <v>18877.84</v>
@@ -53363,7 +53363,7 @@
         <v>1.2182</v>
       </c>
       <c r="J771">
-        <v>5972.03</v>
+        <v>-5972.03</v>
       </c>
       <c r="K771">
         <v>7275.13</v>
@@ -53425,7 +53425,7 @@
         <v>1.0758</v>
       </c>
       <c r="J772">
-        <v>1265.09</v>
+        <v>-1265.09</v>
       </c>
       <c r="K772">
         <v>1360.98</v>
@@ -53487,7 +53487,7 @@
         <v>1.0681</v>
       </c>
       <c r="J773">
-        <v>2771.93</v>
+        <v>-2771.93</v>
       </c>
       <c r="K773">
         <v>2960.7</v>
@@ -53549,7 +53549,7 @@
         <v>1.538</v>
       </c>
       <c r="J774">
-        <v>836.3099999999999</v>
+        <v>-836.3099999999999</v>
       </c>
       <c r="K774">
         <v>1286.24</v>
@@ -53735,7 +53735,7 @@
         <v>1.4364</v>
       </c>
       <c r="J777">
-        <v>5328.62</v>
+        <v>-5328.62</v>
       </c>
       <c r="K777">
         <v>7615.76</v>
@@ -54355,7 +54355,7 @@
         <v>0.874</v>
       </c>
       <c r="J787">
-        <v>2900</v>
+        <v>-2900</v>
       </c>
       <c r="K787">
         <v>2534.6</v>
@@ -54417,7 +54417,7 @@
         <v>1.478</v>
       </c>
       <c r="J788">
-        <v>4800</v>
+        <v>-4800</v>
       </c>
       <c r="K788">
         <v>7094.4</v>
@@ -54913,7 +54913,7 @@
         <v>1.354</v>
       </c>
       <c r="J796">
-        <v>2878.62</v>
+        <v>-2878.62</v>
       </c>
       <c r="K796">
         <v>3897.65</v>
@@ -54975,7 +54975,7 @@
         <v>1.223</v>
       </c>
       <c r="J797">
-        <v>9516.1</v>
+        <v>-9516.1</v>
       </c>
       <c r="K797">
         <v>11638.19</v>
@@ -55037,7 +55037,7 @@
         <v>1.0927</v>
       </c>
       <c r="J798">
-        <v>3630.67</v>
+        <v>-3630.67</v>
       </c>
       <c r="K798">
         <v>3967.23</v>
@@ -55099,7 +55099,7 @@
         <v>1.0797</v>
       </c>
       <c r="J799">
-        <v>3713.99</v>
+        <v>-3713.99</v>
       </c>
       <c r="K799">
         <v>4010</v>
@@ -55161,7 +55161,7 @@
         <v>1.0797</v>
       </c>
       <c r="J800">
-        <v>3551.93</v>
+        <v>-3551.93</v>
       </c>
       <c r="K800">
         <v>3835.02</v>
@@ -55223,7 +55223,7 @@
         <v>1.565</v>
       </c>
       <c r="J801">
-        <v>2564.62</v>
+        <v>-2564.62</v>
       </c>
       <c r="K801">
         <v>4013.63</v>
@@ -55285,7 +55285,7 @@
         <v>0.923</v>
       </c>
       <c r="J802">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="K802">
         <v>2769</v>
@@ -56711,7 +56711,7 @@
         <v>0.833</v>
       </c>
       <c r="J825">
-        <v>2900</v>
+        <v>-2900</v>
       </c>
       <c r="K825">
         <v>2415.7</v>
@@ -57207,7 +57207,7 @@
         <v>0.7161999999999999</v>
       </c>
       <c r="J833">
-        <v>930.1900000000001</v>
+        <v>-930.1900000000001</v>
       </c>
       <c r="K833">
         <v>666.2</v>
@@ -57269,7 +57269,7 @@
         <v>0.7161999999999999</v>
       </c>
       <c r="J834">
-        <v>1394.58</v>
+        <v>-1394.58</v>
       </c>
       <c r="K834">
         <v>998.8</v>
@@ -57331,7 +57331,7 @@
         <v>1.358</v>
       </c>
       <c r="J835">
-        <v>6100</v>
+        <v>-6100</v>
       </c>
       <c r="K835">
         <v>8283.799999999999</v>
@@ -57393,7 +57393,7 @@
         <v>0.955</v>
       </c>
       <c r="J836">
-        <v>6000</v>
+        <v>-6000</v>
       </c>
       <c r="K836">
         <v>5730</v>
@@ -57641,7 +57641,7 @@
         <v>5.578</v>
       </c>
       <c r="J840">
-        <v>4100</v>
+        <v>-4100</v>
       </c>
       <c r="K840">
         <v>22869.8</v>
@@ -57703,7 +57703,7 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="J841">
-        <v>3100</v>
+        <v>-3100</v>
       </c>
       <c r="K841">
         <v>2523.4</v>
@@ -57889,7 +57889,7 @@
         <v>0.954</v>
       </c>
       <c r="J844">
-        <v>2600</v>
+        <v>-2600</v>
       </c>
       <c r="K844">
         <v>2480.4</v>
@@ -58075,7 +58075,7 @@
         <v>5.721</v>
       </c>
       <c r="J847">
-        <v>8800</v>
+        <v>-8800</v>
       </c>
       <c r="K847">
         <v>50344.8</v>
@@ -58137,7 +58137,7 @@
         <v>5.751</v>
       </c>
       <c r="J848">
-        <v>1800</v>
+        <v>-1800</v>
       </c>
       <c r="K848">
         <v>10351.8</v>
@@ -58199,7 +58199,7 @@
         <v>0.766</v>
       </c>
       <c r="J849">
-        <v>3300</v>
+        <v>-3300</v>
       </c>
       <c r="K849">
         <v>2527.8</v>
@@ -58261,7 +58261,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="J850">
-        <v>11249</v>
+        <v>-11249</v>
       </c>
       <c r="K850">
         <v>7773.06</v>
@@ -58571,7 +58571,7 @@
         <v>0.9777</v>
       </c>
       <c r="J855">
-        <v>9457.639999999999</v>
+        <v>-9457.639999999999</v>
       </c>
       <c r="K855">
         <v>9246.73</v>
@@ -59315,7 +59315,7 @@
         <v>2.3877</v>
       </c>
       <c r="J867">
-        <v>342.8</v>
+        <v>-342.8</v>
       </c>
       <c r="K867">
         <v>814.41</v>
@@ -59873,7 +59873,7 @@
         <v>5.994</v>
       </c>
       <c r="J876">
-        <v>1800</v>
+        <v>-1800</v>
       </c>
       <c r="K876">
         <v>10789.2</v>
@@ -59935,7 +59935,7 @@
         <v>2.3877</v>
       </c>
       <c r="J877">
-        <v>3289.25</v>
+        <v>-3289.25</v>
       </c>
       <c r="K877">
         <v>7814.47</v>
@@ -60369,7 +60369,7 @@
         <v>1.02</v>
       </c>
       <c r="J884">
-        <v>2400</v>
+        <v>-2400</v>
       </c>
       <c r="K884">
         <v>2448</v>
@@ -60865,7 +60865,7 @@
         <v>5.874</v>
       </c>
       <c r="J892">
-        <v>1800</v>
+        <v>-1800</v>
       </c>
       <c r="K892">
         <v>10573.2</v>
@@ -61051,7 +61051,7 @@
         <v>5.862</v>
       </c>
       <c r="J895">
-        <v>1800</v>
+        <v>-1800</v>
       </c>
       <c r="K895">
         <v>10551.6</v>
@@ -61113,7 +61113,7 @@
         <v>6</v>
       </c>
       <c r="J896">
-        <v>1800</v>
+        <v>-1800</v>
       </c>
       <c r="K896">
         <v>10800</v>
@@ -61175,7 +61175,7 @@
         <v>1.387</v>
       </c>
       <c r="J897">
-        <v>1800</v>
+        <v>-1800</v>
       </c>
       <c r="K897">
         <v>2496.6</v>
@@ -61299,7 +61299,7 @@
         <v>1.3492</v>
       </c>
       <c r="J899">
-        <v>11580.99</v>
+        <v>-11580.99</v>
       </c>
       <c r="K899">
         <v>15625.07</v>
@@ -61361,7 +61361,7 @@
         <v>2.2515</v>
       </c>
       <c r="J900">
-        <v>71.41</v>
+        <v>-71.41</v>
       </c>
       <c r="K900">
         <v>160.78</v>
@@ -61423,7 +61423,7 @@
         <v>1.0972</v>
       </c>
       <c r="J901">
-        <v>253.18</v>
+        <v>-253.18</v>
       </c>
       <c r="K901">
         <v>277.79</v>
@@ -61485,7 +61485,7 @@
         <v>1.0972</v>
       </c>
       <c r="J902">
-        <v>114.15</v>
+        <v>-114.15</v>
       </c>
       <c r="K902">
         <v>125.25</v>
@@ -61547,7 +61547,7 @@
         <v>1.569</v>
       </c>
       <c r="J903">
-        <v>34.64</v>
+        <v>-34.64</v>
       </c>
       <c r="K903">
         <v>54.35</v>
@@ -61919,7 +61919,7 @@
         <v>1.577</v>
       </c>
       <c r="J909">
-        <v>5520.14</v>
+        <v>-5520.14</v>
       </c>
       <c r="K909">
         <v>8687.85</v>
@@ -61981,7 +61981,7 @@
         <v>1.1138</v>
       </c>
       <c r="J910">
-        <v>30.06</v>
+        <v>-30.06</v>
       </c>
       <c r="K910">
         <v>33.41</v>
@@ -62105,7 +62105,7 @@
         <v>1.1574</v>
       </c>
       <c r="J912">
-        <v>106.74</v>
+        <v>-106.74</v>
       </c>
       <c r="K912">
         <v>122.92</v>
@@ -62167,7 +62167,7 @@
         <v>1.1608</v>
       </c>
       <c r="J913">
-        <v>27.06</v>
+        <v>-27.06</v>
       </c>
       <c r="K913">
         <v>31.35</v>
@@ -62291,7 +62291,7 @@
         <v>1.1545</v>
       </c>
       <c r="J915">
-        <v>7866.51</v>
+        <v>-7866.51</v>
       </c>
       <c r="K915">
         <v>9081.889999999999</v>
@@ -62415,7 +62415,7 @@
         <v>1.1762</v>
       </c>
       <c r="J917">
-        <v>96.06999999999999</v>
+        <v>-96.06999999999999</v>
       </c>
       <c r="K917">
         <v>112.44</v>
@@ -62477,7 +62477,7 @@
         <v>1.1814</v>
       </c>
       <c r="J918">
-        <v>29.22</v>
+        <v>-29.22</v>
       </c>
       <c r="K918">
         <v>34.45</v>
@@ -62539,7 +62539,7 @@
         <v>2.5764</v>
       </c>
       <c r="J919">
-        <v>122.01</v>
+        <v>-122.01</v>
       </c>
       <c r="K919">
         <v>313.23</v>
@@ -62601,7 +62601,7 @@
         <v>1.2629</v>
       </c>
       <c r="J920">
-        <v>103.75</v>
+        <v>-103.75</v>
       </c>
       <c r="K920">
         <v>130.37</v>
@@ -62663,7 +62663,7 @@
         <v>1.3508</v>
       </c>
       <c r="J921">
-        <v>25.71</v>
+        <v>-25.71</v>
       </c>
       <c r="K921">
         <v>34.66</v>
@@ -62725,7 +62725,7 @@
         <v>3.323</v>
       </c>
       <c r="J922">
-        <v>25.39</v>
+        <v>-25.39</v>
       </c>
       <c r="K922">
         <v>83.94</v>
@@ -62911,7 +62911,7 @@
         <v>2.103</v>
       </c>
       <c r="J925">
-        <v>4800</v>
+        <v>-4800</v>
       </c>
       <c r="K925">
         <v>10094.4</v>
@@ -63407,7 +63407,7 @@
         <v>2.6166</v>
       </c>
       <c r="J933">
-        <v>109.81</v>
+        <v>-109.81</v>
       </c>
       <c r="K933">
         <v>285.95</v>
@@ -63469,7 +63469,7 @@
         <v>1.3505</v>
       </c>
       <c r="J934">
-        <v>91.3</v>
+        <v>-91.3</v>
       </c>
       <c r="K934">
         <v>122.68</v>
@@ -63531,7 +63531,7 @@
         <v>1.4521</v>
       </c>
       <c r="J935">
-        <v>30.17</v>
+        <v>-30.17</v>
       </c>
       <c r="K935">
         <v>43.72</v>
@@ -63593,7 +63593,7 @@
         <v>3.3589</v>
       </c>
       <c r="J936">
-        <v>22.85</v>
+        <v>-22.85</v>
       </c>
       <c r="K936">
         <v>76.36</v>
@@ -63903,7 +63903,7 @@
         <v>1.765</v>
       </c>
       <c r="J941">
-        <v>296.95</v>
+        <v>-296.95</v>
       </c>
       <c r="K941">
         <v>521.5</v>
@@ -63965,7 +63965,7 @@
         <v>1.2856</v>
       </c>
       <c r="J942">
-        <v>7953.63</v>
+        <v>-7953.63</v>
       </c>
       <c r="K942">
         <v>10225.19</v>
@@ -64027,7 +64027,7 @@
         <v>1.765</v>
       </c>
       <c r="J943">
-        <v>5629.17</v>
+        <v>-5629.17</v>
       </c>
       <c r="K943">
         <v>9915.620000000001</v>
@@ -64089,7 +64089,7 @@
         <v>2.5755</v>
       </c>
       <c r="J944">
-        <v>118.6</v>
+        <v>-118.6</v>
       </c>
       <c r="K944">
         <v>303.92</v>
@@ -64151,7 +64151,7 @@
         <v>1.3236</v>
       </c>
       <c r="J945">
-        <v>107.13</v>
+        <v>-107.13</v>
       </c>
       <c r="K945">
         <v>141.09</v>
@@ -64213,7 +64213,7 @@
         <v>1.3699</v>
       </c>
       <c r="J946">
-        <v>31.68</v>
+        <v>-31.68</v>
       </c>
       <c r="K946">
         <v>43.31</v>
@@ -64275,7 +64275,7 @@
         <v>3.3999</v>
       </c>
       <c r="J947">
-        <v>24.68</v>
+        <v>-24.68</v>
       </c>
       <c r="K947">
         <v>83.5</v>
@@ -65081,7 +65081,7 @@
         <v>2.482</v>
       </c>
       <c r="J960">
-        <v>104.37</v>
+        <v>-104.37</v>
       </c>
       <c r="K960">
         <v>257.75</v>
@@ -65143,7 +65143,7 @@
         <v>1.2958</v>
       </c>
       <c r="J961">
-        <v>112.49</v>
+        <v>-112.49</v>
       </c>
       <c r="K961">
         <v>145.03</v>
@@ -65205,7 +65205,7 @@
         <v>1.3775</v>
       </c>
       <c r="J962">
-        <v>31.68</v>
+        <v>-31.68</v>
       </c>
       <c r="K962">
         <v>43.55</v>
@@ -65267,7 +65267,7 @@
         <v>3.3058</v>
       </c>
       <c r="J963">
-        <v>21.71</v>
+        <v>-21.71</v>
       </c>
       <c r="K963">
         <v>71.41</v>
@@ -65515,7 +65515,7 @@
         <v>2.3623</v>
       </c>
       <c r="J967">
-        <v>72.23999999999999</v>
+        <v>-72.23999999999999</v>
       </c>
       <c r="K967">
         <v>170.65</v>
@@ -65577,7 +65577,7 @@
         <v>2.3622</v>
       </c>
       <c r="J968">
-        <v>44.37</v>
+        <v>-44.37</v>
       </c>
       <c r="K968">
         <v>104.81</v>
@@ -65639,7 +65639,7 @@
         <v>1.163</v>
       </c>
       <c r="J969">
-        <v>985.34</v>
+        <v>-985.34</v>
       </c>
       <c r="K969">
         <v>1145.95</v>
@@ -65701,7 +65701,7 @@
         <v>1.5776</v>
       </c>
       <c r="J970">
-        <v>43.82</v>
+        <v>-43.82</v>
       </c>
       <c r="K970">
         <v>69.13</v>
@@ -65763,7 +65763,7 @@
         <v>1.06</v>
       </c>
       <c r="J971">
-        <v>331.89</v>
+        <v>-331.89</v>
       </c>
       <c r="K971">
         <v>351.8</v>
@@ -65825,7 +65825,7 @@
         <v>1.06</v>
       </c>
       <c r="J972">
-        <v>226.59</v>
+        <v>-226.59</v>
       </c>
       <c r="K972">
         <v>240.19</v>
@@ -66383,7 +66383,7 @@
         <v>2.5722</v>
       </c>
       <c r="J981">
-        <v>130.11</v>
+        <v>-130.11</v>
       </c>
       <c r="K981">
         <v>333</v>
@@ -66445,7 +66445,7 @@
         <v>1.3785</v>
       </c>
       <c r="J982">
-        <v>112.48</v>
+        <v>-112.48</v>
       </c>
       <c r="K982">
         <v>154.27</v>
@@ -66507,7 +66507,7 @@
         <v>1.3885</v>
       </c>
       <c r="J983">
-        <v>33.26</v>
+        <v>-33.26</v>
       </c>
       <c r="K983">
         <v>46.09</v>
@@ -66569,7 +66569,7 @@
         <v>3.4728</v>
       </c>
       <c r="J984">
-        <v>27.07</v>
+        <v>-27.07</v>
       </c>
       <c r="K984">
         <v>93.53</v>
@@ -67065,7 +67065,7 @@
         <v>2.5282</v>
       </c>
       <c r="J992">
-        <v>127.05</v>
+        <v>-127.05</v>
       </c>
       <c r="K992">
         <v>319.6</v>
@@ -67127,7 +67127,7 @@
         <v>1.3447</v>
       </c>
       <c r="J993">
-        <v>118.11</v>
+        <v>-118.11</v>
       </c>
       <c r="K993">
         <v>158.03</v>
@@ -67189,7 +67189,7 @@
         <v>1.3545</v>
       </c>
       <c r="J994">
-        <v>30.89</v>
+        <v>-30.89</v>
       </c>
       <c r="K994">
         <v>41.76</v>
@@ -67251,7 +67251,7 @@
         <v>3.4011</v>
       </c>
       <c r="J995">
-        <v>26.43</v>
+        <v>-26.43</v>
       </c>
       <c r="K995">
         <v>89.44</v>
@@ -67313,7 +67313,7 @@
         <v>1.3139</v>
       </c>
       <c r="J996">
-        <v>7014.52</v>
+        <v>-7014.52</v>
       </c>
       <c r="K996">
         <v>9216.379999999999</v>
@@ -67623,7 +67623,7 @@
         <v>2.6082</v>
       </c>
       <c r="J1001">
-        <v>127.05</v>
+        <v>-127.05</v>
       </c>
       <c r="K1001">
         <v>329.71</v>
@@ -67685,7 +67685,7 @@
         <v>1.3563</v>
       </c>
       <c r="J1002">
-        <v>109.68</v>
+        <v>-109.68</v>
       </c>
       <c r="K1002">
         <v>148.02</v>
@@ -67747,7 +67747,7 @@
         <v>1.4275</v>
       </c>
       <c r="J1003">
-        <v>30.88</v>
+        <v>-30.88</v>
       </c>
       <c r="K1003">
         <v>43.99</v>
@@ -67809,7 +67809,7 @@
         <v>3.545</v>
       </c>
       <c r="J1004">
-        <v>26.44</v>
+        <v>-26.44</v>
       </c>
       <c r="K1004">
         <v>93.25</v>
